--- a/Bug Reports/Test Cases of Vizalys.xlsx
+++ b/Bug Reports/Test Cases of Vizalys.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25003"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahsan\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahsan\Documents\GitHub\ForGitHubDesktopTesting\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1E0A451D6F27692707276108124B520C698B48B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Test Cases For Finance Module</t>
   </si>
@@ -269,12 +268,15 @@
   <si>
     <t>SOP Of Every Type Fields:</t>
   </si>
+  <si>
+    <t>fdfdfd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -649,17 +651,17 @@
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.25">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -696,37 +698,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -734,12 +736,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -747,27 +749,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -775,17 +777,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -793,7 +795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -801,67 +803,67 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -869,12 +871,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>48</v>
       </c>
@@ -882,12 +884,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>49</v>
       </c>
@@ -895,12 +897,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>51</v>
       </c>
@@ -908,12 +910,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>52</v>
       </c>
@@ -921,12 +923,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>53</v>
       </c>
@@ -934,12 +936,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>55</v>
       </c>
@@ -947,12 +949,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>56</v>
       </c>
@@ -960,17 +962,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>59</v>
       </c>
@@ -978,12 +980,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>60</v>
       </c>
@@ -991,12 +993,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>61</v>
       </c>
@@ -1004,12 +1006,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>63</v>
       </c>
@@ -1017,12 +1019,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>64</v>
       </c>
@@ -1030,12 +1032,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>65</v>
       </c>
@@ -1043,12 +1045,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>66</v>
       </c>
@@ -1056,24 +1058,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1083,16 +1090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="18.75">
+    <row r="4" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
